--- a/generated-files/BuildingLocationTemplate.xlsx
+++ b/generated-files/BuildingLocationTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967D32F9-3382-411A-8D3E-910AC8E9931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B12E6-0510-4F1D-88A0-D9E21CFDF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42510" yWindow="-16665" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingLocationTemplate" sheetId="1" r:id="rId1"/>
@@ -415,10 +415,13 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E23"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -524,291 +527,291 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B7">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-4.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E7">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B8">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>-2.2999999999999998</v>
+        <v>-4.2</v>
       </c>
       <c r="E8">
-        <v>0.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B9">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>6.41</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="E9">
-        <v>1.55</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>4.2</v>
+        <v>6.41</v>
       </c>
       <c r="E10">
-        <v>-0.72</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B11">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>5.92</v>
+        <v>4.2</v>
       </c>
       <c r="E11">
-        <v>-1.6</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B12">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.4500000000000002</v>
+        <v>5.92</v>
       </c>
       <c r="E12">
-        <v>-1.66</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B13">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.3099999999999996</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="E13">
-        <v>-2.54</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B14">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>-10.25</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E14">
-        <v>-1.02</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B15">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>-7.27</v>
+        <v>-10.25</v>
       </c>
       <c r="E15">
-        <v>-2.12</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B16">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-0.16</v>
+        <v>-7.27</v>
       </c>
       <c r="E16">
-        <v>-7.55</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B17">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>-1.95</v>
+        <v>-0.16</v>
       </c>
       <c r="E17">
-        <v>-6.44</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B18">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.07</v>
+        <v>-1.95</v>
       </c>
       <c r="E18">
-        <v>-2.97</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B19">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>-11.97</v>
+        <v>9.07</v>
       </c>
       <c r="E19">
-        <v>-1.99</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B20">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>-9.31</v>
+        <v>-11.97</v>
       </c>
       <c r="E20">
-        <v>-3.31</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B21">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-2.12</v>
+        <v>-9.31</v>
       </c>
       <c r="E21">
-        <v>-8.94</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B22">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>-4.08</v>
+        <v>-2.12</v>
       </c>
       <c r="E22">
-        <v>-7.7</v>
+        <v>-8.94</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B23">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>-0.4</v>
+        <v>-4.08</v>
       </c>
       <c r="E23">
-        <v>1.76</v>
+        <v>-7.7</v>
       </c>
     </row>
   </sheetData>

--- a/generated-files/BuildingLocationTemplate.xlsx
+++ b/generated-files/BuildingLocationTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B12E6-0510-4F1D-88A0-D9E21CFDF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068ABC0-2E0B-4A90-AE5D-5754FDEB10A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,10 +46,10 @@
     <t>buildingTemplateId</t>
   </si>
   <si>
-    <t>位置是否解锁</t>
-  </si>
-  <si>
-    <t>isUnlocked</t>
+    <t>requiredCharacterLevel</t>
+  </si>
+  <si>
+    <t>解锁该建筑位置所需的角色等级</t>
   </si>
 </sst>
 </file>
@@ -415,12 +415,12 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -448,7 +448,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
         <v>1005</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>-0.4</v>
@@ -618,7 +618,7 @@
         <v>1010</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>5.92</v>
@@ -635,7 +635,7 @@
         <v>1011</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>2.4500000000000002</v>
@@ -652,7 +652,7 @@
         <v>1012</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>4.3099999999999996</v>
@@ -686,7 +686,7 @@
         <v>1014</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>-7.27</v>
@@ -703,7 +703,7 @@
         <v>1015</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>-0.16</v>
@@ -720,7 +720,7 @@
         <v>1016</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>-1.95</v>
@@ -737,7 +737,7 @@
         <v>1017</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>9.07</v>
@@ -754,7 +754,7 @@
         <v>1018</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>-11.97</v>
@@ -771,7 +771,7 @@
         <v>1019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>-9.31</v>
@@ -788,7 +788,7 @@
         <v>1020</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>-2.12</v>
@@ -805,7 +805,7 @@
         <v>1021</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>-4.08</v>
@@ -817,5 +817,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>